--- a/data/topics-activities/twcs-AppleSupport-outbound-activities.xlsx
+++ b/data/topics-activities/twcs-AppleSupport-outbound-activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/electric/data/topics-activities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/ericsson/data/topics-activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAB5488-DB76-7549-A508-FE8FFD51B3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F5B765-81B1-614F-B68D-6D083F177AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31620" yWindow="3940" windowWidth="27640" windowHeight="16940" xr2:uid="{80AC9956-AAEC-4842-A206-2AD9656E775B}"/>
+    <workbookView xWindow="-25620" yWindow="2340" windowWidth="23000" windowHeight="10900" xr2:uid="{80AC9956-AAEC-4842-A206-2AD9656E775B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>The example requests the device model</t>
   </si>
   <si>
-    <t>Please provide the iOS version</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>https://t.co</t>
+  </si>
+  <si>
+    <t>This example asks for iOS version</t>
   </si>
 </sst>
 </file>
@@ -514,9 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E398DC0-6B5D-EA41-8E84-AD71313D09F3}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -530,7 +528,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -554,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -562,10 +560,10 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0.82999999999999985</v>
@@ -586,7 +584,7 @@
         <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -594,10 +592,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0.86</v>
@@ -618,7 +616,7 @@
         <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -626,31 +624,31 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>0.98000000000000009</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="E4">
-        <v>0.87083333333333324</v>
+        <v>0.86116320589274054</v>
       </c>
       <c r="F4">
         <v>0.96</v>
       </c>
       <c r="G4">
-        <v>0.91874999999999996</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="H4">
-        <v>0.88333333333333319</v>
+        <v>0.87500000000000011</v>
       </c>
       <c r="I4">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -658,7 +656,7 @@
         <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -682,7 +680,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -690,31 +688,31 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>0.99199999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E6">
-        <v>0.80501792990428578</v>
+        <v>0.7987130728397912</v>
       </c>
       <c r="F6">
         <v>0.9</v>
       </c>
       <c r="G6">
-        <v>0.90252525252525262</v>
+        <v>0.90097402597402598</v>
       </c>
       <c r="H6">
-        <v>0.9103896103896103</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="I6">
         <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -722,10 +720,10 @@
         <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>0.87</v>
@@ -746,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -754,7 +752,7 @@
         <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -763,22 +761,22 @@
         <v>0.999</v>
       </c>
       <c r="E8">
-        <v>0.89865684845125093</v>
+        <v>0.86154979034128576</v>
       </c>
       <c r="F8">
-        <v>0.98989898989898994</v>
+        <v>0.99</v>
       </c>
       <c r="G8">
-        <v>0.99479166666666663</v>
+        <v>0.99484536082474229</v>
       </c>
       <c r="H8">
-        <v>0.88888888888888884</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
